--- a/medicine/Psychotrope/La_Gauloise_(liqueur)/La_Gauloise_(liqueur).xlsx
+++ b/medicine/Psychotrope/La_Gauloise_(liqueur)/La_Gauloise_(liqueur).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Gauloise est une liqueur à base de plantes et d'eau de vie, originaire de Corrèze, dans le centre de la France. La recette remonterait à l'époque gallo-romaine où les légionnaires romains auraient préféré cette liqueur locale au vin. Remise en circulation par la famille Requier[1][source insuffisante] à partir de 1783, elle est désormais fabriquée par la « distillerie du centre »[2] à Limoges.
+La Gauloise est une liqueur à base de plantes et d'eau de vie, originaire de Corrèze, dans le centre de la France. La recette remonterait à l'époque gallo-romaine où les légionnaires romains auraient préféré cette liqueur locale au vin. Remise en circulation par la famille Requier[source insuffisante] à partir de 1783, elle est désormais fabriquée par la « distillerie du centre » à Limoges.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon la légende, les légionnaires romains stationnés au centre de la Gaule auraient grandement apprécié cette liqueur locale, voire l'auraient préféré au vin qu'ils recevaient en solde ou encore à l'hydromel. 
 La recette en aurait été redécouverte par un certain Edouard Requier, distillateur et liquoriste à Périgueux, en 1783 dans un grimoire. En hommage à la légende, la liqueur prit le nom de « La Gauloise ». Cet Edouard Requier est l'ancêtre de la famille exploitant la dite liqueur, et dont le membre le plus actif fut Édouard Louis Requier (1855-1909)
@@ -545,7 +559,9 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La Gauloise verte (48°)
 La Gauloise jaune (40°)</t>
@@ -576,7 +592,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1894 Médaille d’Or, Exposition Universelle Lyon
 1895 Diplôme d’honneur, Exposition Universelle Amsterdam (Pays-Bas)
